--- a/biology/Botanique/Setaria/Setaria.xlsx
+++ b/biology/Botanique/Setaria/Setaria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Sétaire
 Setaria (les sétaires) est un genre de plantes monocotylédones de la famille des Poaceae (graminées), présent dans toutes les régions tempérées et tropicales du monde.
@@ -514,9 +526,11 @@
           <t>Espèces cultivées</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Plusieurs espèces de Setaria ont été cultivées ou simplement récoltées, et le sont parfois encore, dans diverses régions du monde[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Plusieurs espèces de Setaria ont été cultivées ou simplement récoltées, et le sont parfois encore, dans diverses régions du monde.
 </t>
         </is>
       </c>
@@ -545,7 +559,9 @@
           <t>Quelques espèces significatives</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Setaria adhaerens
@@ -598,9 +614,11 @@
           <t>Liste des espèces, sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 juillet 2016)[2] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (2 juillet 2016) :
 Setaria acromelaena (Hochst.) T.Durand &amp; Schinz (1894)
 Setaria albovillosa (S.T.Blake) R.D.Webster (1995)
 Setaria alonsoi Pensiero &amp; A.M.Anton (1994)
